--- a/results/mp/deberta/corona/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
@@ -94,10 +94,10 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1094,25 +1094,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6536796536796536</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L18">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="M18">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1120,25 +1120,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6382978723404256</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L19">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="M19">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1276,25 +1276,25 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5274390243902439</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L25">
         <v>173</v>
       </c>
       <c r="M25">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="10:17">
